--- a/input/measurements2.xlsx
+++ b/input/measurements2.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Datascience\Prius_consommation\Prius_gas_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX533F\Desktop\IRONHACK\PROJECTS\reto_data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F5EA70-175C-42B7-B5F3-24587D4D8E30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15000" windowHeight="7995"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -156,28 +155,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L389" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L389"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L389" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L389" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="distance"/>
-    <tableColumn id="2" name="consume"/>
-    <tableColumn id="3" name="speed"/>
-    <tableColumn id="4" name="temp_inside"/>
-    <tableColumn id="5" name="temp_outside"/>
-    <tableColumn id="6" name="specials"/>
-    <tableColumn id="7" name="gas_type"/>
-    <tableColumn id="8" name="AC"/>
-    <tableColumn id="9" name="rain"/>
-    <tableColumn id="10" name="sun"/>
-    <tableColumn id="11" name="refill liters"/>
-    <tableColumn id="12" name="refill gas"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="distance"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="consume"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="speed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="temp_inside"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="temp_outside"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="specials"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="gas_type"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AC"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="rain"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sun"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="refill liters"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="refill gas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -252,6 +251,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -287,6 +303,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,7 +495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -470,17 +503,17 @@
       <selection pane="bottomLeft" activeCell="K389" sqref="K389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>28</v>
       </c>
@@ -553,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -582,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11.2</v>
       </c>
@@ -611,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12.9</v>
       </c>
@@ -640,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18.5</v>
       </c>
@@ -669,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.3000000000000007</v>
       </c>
@@ -698,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.8</v>
       </c>
@@ -727,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12.3</v>
       </c>
@@ -756,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.9000000000000004</v>
       </c>
@@ -785,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11.9</v>
       </c>
@@ -814,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12.4</v>
       </c>
@@ -843,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11.8</v>
       </c>
@@ -872,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.3</v>
       </c>
@@ -901,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24.7</v>
       </c>
@@ -930,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.4</v>
       </c>
@@ -959,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17.3</v>
       </c>
@@ -988,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33.4</v>
       </c>
@@ -1017,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11.8</v>
       </c>
@@ -1046,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25.9</v>
       </c>
@@ -1075,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11.8</v>
       </c>
@@ -1104,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25.3</v>
       </c>
@@ -1133,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14.2</v>
       </c>
@@ -1162,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17.899999999999999</v>
       </c>
@@ -1191,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11.8</v>
       </c>
@@ -1220,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12.3</v>
       </c>
@@ -1249,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12.4</v>
       </c>
@@ -1278,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18.399999999999999</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18.399999999999999</v>
       </c>
@@ -1336,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18.3</v>
       </c>
@@ -1365,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18.399999999999999</v>
       </c>
@@ -1394,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12.3</v>
       </c>
@@ -1423,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11.8</v>
       </c>
@@ -1452,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12.3</v>
       </c>
@@ -1481,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32.6</v>
       </c>
@@ -1510,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19</v>
       </c>
@@ -1539,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12.1</v>
       </c>
@@ -1568,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
@@ -1597,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -1626,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11.8</v>
       </c>
@@ -1655,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12.3</v>
       </c>
@@ -1684,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12.4</v>
       </c>
@@ -1716,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4.5</v>
       </c>
@@ -1748,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11.7</v>
       </c>
@@ -1777,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10.199999999999999</v>
       </c>
@@ -1806,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.4</v>
       </c>
@@ -1841,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1870,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14.2</v>
       </c>
@@ -1899,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -1928,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11.8</v>
       </c>
@@ -1957,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>27.3</v>
       </c>
@@ -1986,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11.8</v>
       </c>
@@ -2018,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10.6</v>
       </c>
@@ -2047,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11.6</v>
       </c>
@@ -2076,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13.1</v>
       </c>
@@ -2108,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.1</v>
       </c>
@@ -2137,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>153.5</v>
       </c>
@@ -2169,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11.8</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12.3</v>
       </c>
@@ -2227,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12.4</v>
       </c>
@@ -2256,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12.3</v>
       </c>
@@ -2288,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.9</v>
       </c>
@@ -2320,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.1</v>
       </c>
@@ -2349,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9.8000000000000007</v>
       </c>
@@ -2378,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.8</v>
       </c>
@@ -2407,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12.4</v>
       </c>
@@ -2436,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12.4</v>
       </c>
@@ -2465,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11.8</v>
       </c>
@@ -2494,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12.3</v>
       </c>
@@ -2523,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -2552,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11.8</v>
       </c>
@@ -2584,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12.3</v>
       </c>
@@ -2613,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2642,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13.9</v>
       </c>
@@ -2671,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9.6999999999999993</v>
       </c>
@@ -2700,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11.6</v>
       </c>
@@ -2729,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14.2</v>
       </c>
@@ -2758,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11.8</v>
       </c>
@@ -2787,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>24.8</v>
       </c>
@@ -2816,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12.4</v>
       </c>
@@ -2845,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>34.799999999999997</v>
       </c>
@@ -2874,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14.2</v>
       </c>
@@ -2903,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.2</v>
       </c>
@@ -2932,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10.5</v>
       </c>
@@ -2967,7 +3000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12.3</v>
       </c>
@@ -2996,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11.8</v>
       </c>
@@ -3025,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12.3</v>
       </c>
@@ -3057,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13.2</v>
       </c>
@@ -3089,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3121,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12.9</v>
       </c>
@@ -3150,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13.9</v>
       </c>
@@ -3179,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11.8</v>
       </c>
@@ -3208,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12.2</v>
       </c>
@@ -3237,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>12.5</v>
       </c>
@@ -3266,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>12.4</v>
       </c>
@@ -3292,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11.8</v>
       </c>
@@ -3324,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11.8</v>
       </c>
@@ -3350,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>12.5</v>
       </c>
@@ -3379,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15.7</v>
       </c>
@@ -3405,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12.9</v>
       </c>
@@ -3431,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.4</v>
       </c>
@@ -3457,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5.3</v>
       </c>
@@ -3483,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>26.2</v>
       </c>
@@ -3515,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18.8</v>
       </c>
@@ -3544,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4.9000000000000004</v>
       </c>
@@ -3576,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12.4</v>
       </c>
@@ -3608,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.9</v>
       </c>
@@ -3637,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>162.69999999999999</v>
       </c>
@@ -3672,7 +3705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4.9000000000000004</v>
       </c>
@@ -3701,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11.8</v>
       </c>
@@ -3730,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16.600000000000001</v>
       </c>
@@ -3759,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12.4</v>
       </c>
@@ -3788,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15.9</v>
       </c>
@@ -3817,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5.0999999999999996</v>
       </c>
@@ -3846,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>22.4</v>
       </c>
@@ -3875,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>31.1</v>
       </c>
@@ -3904,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4.9000000000000004</v>
       </c>
@@ -3933,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11.8</v>
       </c>
@@ -3965,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>22.9</v>
       </c>
@@ -3997,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12.4</v>
       </c>
@@ -4029,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12.9</v>
       </c>
@@ -4058,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>11.8</v>
       </c>
@@ -4087,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12.2</v>
       </c>
@@ -4116,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24.8</v>
       </c>
@@ -4145,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14.2</v>
       </c>
@@ -4174,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11.8</v>
       </c>
@@ -4206,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>12.2</v>
       </c>
@@ -4238,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24.7</v>
       </c>
@@ -4267,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6.8</v>
       </c>
@@ -4296,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>17.3</v>
       </c>
@@ -4325,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>11.8</v>
       </c>
@@ -4354,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>15.9</v>
       </c>
@@ -4383,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5.0999999999999996</v>
       </c>
@@ -4412,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>16.100000000000001</v>
       </c>
@@ -4441,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11.8</v>
       </c>
@@ -4470,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4.2</v>
       </c>
@@ -4499,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>17.399999999999999</v>
       </c>
@@ -4528,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>23.5</v>
       </c>
@@ -4560,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11.8</v>
       </c>
@@ -4592,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12.3</v>
       </c>
@@ -4624,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>16.100000000000001</v>
       </c>
@@ -4662,7 +4695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>11.8</v>
       </c>
@@ -4694,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>12.3</v>
       </c>
@@ -4723,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>12.4</v>
       </c>
@@ -4752,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -4781,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>11.8</v>
       </c>
@@ -4810,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20.100000000000001</v>
       </c>
@@ -4839,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20.8</v>
       </c>
@@ -4868,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1.7</v>
       </c>
@@ -4900,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>35.9</v>
       </c>
@@ -4929,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>36.9</v>
       </c>
@@ -4958,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16.8</v>
       </c>
@@ -4987,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>9.9</v>
       </c>
@@ -5016,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>22.9</v>
       </c>
@@ -5048,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>17.3</v>
       </c>
@@ -5080,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>11.8</v>
       </c>
@@ -5109,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>36.6</v>
       </c>
@@ -5141,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44.9</v>
       </c>
@@ -5170,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11.8</v>
       </c>
@@ -5202,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>21.6</v>
       </c>
@@ -5234,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>39.4</v>
       </c>
@@ -5266,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5.0999999999999996</v>
       </c>
@@ -5295,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>26.6</v>
       </c>
@@ -5324,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>53.2</v>
       </c>
@@ -5353,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>18.899999999999999</v>
       </c>
@@ -5382,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>43.5</v>
       </c>
@@ -5411,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6.1</v>
       </c>
@@ -5440,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>16.399999999999999</v>
       </c>
@@ -5469,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>12.3</v>
       </c>
@@ -5498,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>21.1</v>
       </c>
@@ -5527,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>21.1</v>
       </c>
@@ -5556,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>22.7</v>
       </c>
@@ -5585,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>44.4</v>
       </c>
@@ -5620,7 +5653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>35.799999999999997</v>
       </c>
@@ -5649,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11.8</v>
       </c>
@@ -5678,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26.2</v>
       </c>
@@ -5707,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>40.6</v>
       </c>
@@ -5736,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>12.4</v>
       </c>
@@ -5765,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>14.1</v>
       </c>
@@ -5794,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>58.7</v>
       </c>
@@ -5823,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>16.2</v>
       </c>
@@ -5852,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>12.3</v>
       </c>
@@ -5881,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>12.3</v>
       </c>
@@ -5913,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>12.4</v>
       </c>
@@ -5942,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>31.8</v>
       </c>
@@ -5971,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>12.3</v>
       </c>
@@ -6000,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>51.6</v>
       </c>
@@ -6029,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>38.6</v>
       </c>
@@ -6058,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>12.3</v>
       </c>
@@ -6087,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>81.2</v>
       </c>
@@ -6116,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>130.30000000000001</v>
       </c>
@@ -6145,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>67.2</v>
       </c>
@@ -6174,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>43.7</v>
       </c>
@@ -6212,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>12.1</v>
       </c>
@@ -6247,7 +6280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>56.1</v>
       </c>
@@ -6276,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>39</v>
       </c>
@@ -6305,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>11.8</v>
       </c>
@@ -6334,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>38.5</v>
       </c>
@@ -6363,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>28.2</v>
       </c>
@@ -6392,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2.9</v>
       </c>
@@ -6421,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>6.1</v>
       </c>
@@ -6450,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>19.600000000000001</v>
       </c>
@@ -6479,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>22.2</v>
       </c>
@@ -6505,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13.6</v>
       </c>
@@ -6534,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>12.6</v>
       </c>
@@ -6560,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>8.6999999999999993</v>
       </c>
@@ -6592,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7.9</v>
       </c>
@@ -6624,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2.4</v>
       </c>
@@ -6653,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4.9000000000000004</v>
       </c>
@@ -6682,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>18.100000000000001</v>
       </c>
@@ -6711,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>25.9</v>
       </c>
@@ -6740,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1.3</v>
       </c>
@@ -6769,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>14.1</v>
       </c>
@@ -6798,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13.4</v>
       </c>
@@ -6827,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>6.4</v>
       </c>
@@ -6856,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>12.9</v>
       </c>
@@ -6885,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12.1</v>
       </c>
@@ -6914,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>15.7</v>
       </c>
@@ -6943,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>16.2</v>
       </c>
@@ -6972,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.8</v>
       </c>
@@ -7001,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>19</v>
       </c>
@@ -7033,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>29</v>
       </c>
@@ -7062,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12.1</v>
       </c>
@@ -7091,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12.3</v>
       </c>
@@ -7120,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>24.8</v>
       </c>
@@ -7149,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -7181,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>11.8</v>
       </c>
@@ -7210,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>31.4</v>
       </c>
@@ -7239,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7271,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13</v>
       </c>
@@ -7303,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>11.8</v>
       </c>
@@ -7332,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13</v>
       </c>
@@ -7361,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>11.8</v>
       </c>
@@ -7390,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>27.1</v>
       </c>
@@ -7419,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5.2</v>
       </c>
@@ -7448,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>19</v>
       </c>
@@ -7483,7 +7516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>12.4</v>
       </c>
@@ -7512,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>25.2</v>
       </c>
@@ -7541,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.3</v>
       </c>
@@ -7570,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11.8</v>
       </c>
@@ -7599,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>16.899999999999999</v>
       </c>
@@ -7631,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>12.4</v>
       </c>
@@ -7663,7 +7696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>17.399999999999999</v>
       </c>
@@ -7695,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9.1999999999999993</v>
       </c>
@@ -7727,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>12.3</v>
       </c>
@@ -7759,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>13</v>
       </c>
@@ -7788,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11.8</v>
       </c>
@@ -7820,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>13</v>
       </c>
@@ -7852,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>12.3</v>
       </c>
@@ -7881,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>12.3</v>
       </c>
@@ -7913,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>12.5</v>
       </c>
@@ -7945,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>31.5</v>
       </c>
@@ -7977,7 +8010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11.8</v>
       </c>
@@ -8006,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>24.9</v>
       </c>
@@ -8035,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>17</v>
       </c>
@@ -8067,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -8096,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11.8</v>
       </c>
@@ -8125,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>7.4</v>
       </c>
@@ -8154,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>12.4</v>
       </c>
@@ -8186,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -8215,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>25.7</v>
       </c>
@@ -8273,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>24.5</v>
       </c>
@@ -8302,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11.8</v>
       </c>
@@ -8331,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4.0999999999999996</v>
       </c>
@@ -8360,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4.2</v>
       </c>
@@ -8389,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4.2</v>
       </c>
@@ -8421,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>16</v>
       </c>
@@ -8450,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>22.9</v>
       </c>
@@ -8476,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>16</v>
       </c>
@@ -8502,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>15.4</v>
       </c>
@@ -8531,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>16</v>
       </c>
@@ -8560,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4.2</v>
       </c>
@@ -8589,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>101.9</v>
       </c>
@@ -8618,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>93.9</v>
       </c>
@@ -8650,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>25.7</v>
       </c>
@@ -8688,7 +8721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>16</v>
       </c>
@@ -8717,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>16.100000000000001</v>
       </c>
@@ -8746,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>16</v>
       </c>
@@ -8778,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>16</v>
       </c>
@@ -8807,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>24.7</v>
       </c>
@@ -8836,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16</v>
       </c>
@@ -8865,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>15.4</v>
       </c>
@@ -8894,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>16</v>
       </c>
@@ -8923,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>32.1</v>
       </c>
@@ -8952,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>25.9</v>
       </c>
@@ -8981,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>48.6</v>
       </c>
@@ -9010,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>37.200000000000003</v>
       </c>
@@ -9042,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>28.8</v>
       </c>
@@ -9074,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.7</v>
       </c>
@@ -9103,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>7.4</v>
       </c>
@@ -9135,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>17.3</v>
       </c>
@@ -9167,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>6.6</v>
       </c>
@@ -9196,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>14.3</v>
       </c>
@@ -9225,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>13.3</v>
       </c>
@@ -9254,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>8.3000000000000007</v>
       </c>
@@ -9283,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>12.7</v>
       </c>
@@ -9315,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>16.5</v>
       </c>
@@ -9344,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>20.6</v>
       </c>
@@ -9373,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>16.3</v>
       </c>
@@ -9402,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>18.7</v>
       </c>
@@ -9434,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>36.5</v>
       </c>
@@ -9466,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>19</v>
       </c>
@@ -9498,7 +9531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>16.600000000000001</v>
       </c>
@@ -9530,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>29.9</v>
       </c>
@@ -9562,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>16</v>
       </c>
@@ -9591,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>21.1</v>
       </c>
@@ -9623,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>16</v>
       </c>
@@ -9652,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>11.9</v>
       </c>
@@ -9681,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10.1</v>
       </c>
@@ -9710,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>31.9</v>
       </c>
@@ -9739,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>18.7</v>
       </c>
@@ -9768,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>10.8</v>
       </c>
@@ -9800,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>19.8</v>
       </c>
@@ -9832,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>11.3</v>
       </c>
@@ -9867,7 +9900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>11.5</v>
       </c>
@@ -9896,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>21.4</v>
       </c>
@@ -9925,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>32</v>
       </c>
@@ -9954,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>41.9</v>
       </c>
@@ -9983,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>211</v>
       </c>
@@ -10012,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>216.1</v>
       </c>
@@ -10044,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>25.5</v>
       </c>
@@ -10076,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>16.600000000000001</v>
       </c>
@@ -10108,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>25.9</v>
       </c>
@@ -10137,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>16.5</v>
       </c>
@@ -10166,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>22.1</v>
       </c>
@@ -10195,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>16.600000000000001</v>
       </c>
@@ -10230,7 +10263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>15.4</v>
       </c>
@@ -10259,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>16.5</v>
       </c>
@@ -10288,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>15.4</v>
       </c>
@@ -10317,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>18.399999999999999</v>
       </c>
@@ -10346,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>39.5</v>
       </c>
@@ -10375,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>21.5</v>
       </c>
@@ -10407,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>4.8</v>
       </c>
@@ -10436,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>100.9</v>
       </c>
@@ -10465,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>129.69999999999999</v>
       </c>
@@ -10497,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>16.600000000000001</v>
       </c>
@@ -10526,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>15.4</v>
       </c>
@@ -10555,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>16</v>
       </c>
@@ -10584,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>16</v>
       </c>
@@ -10613,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>15.4</v>
       </c>
@@ -10642,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>16</v>
       </c>
@@ -10671,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>21</v>
       </c>
@@ -10700,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>15.4</v>
       </c>
@@ -10729,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>16</v>
       </c>
@@ -10758,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>16.100000000000001</v>
       </c>
@@ -10790,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>16</v>
       </c>
@@ -10819,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>15.4</v>
       </c>
@@ -10848,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>17.2</v>
       </c>
@@ -10877,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>16.600000000000001</v>
       </c>
@@ -10906,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>18.3</v>
       </c>
@@ -10941,7 +10974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>16.100000000000001</v>
       </c>
@@ -10973,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>16</v>
       </c>
@@ -11002,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>16.3</v>
       </c>
@@ -11031,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>16</v>
       </c>
@@ -11060,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18.3</v>
       </c>
@@ -11089,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4.5</v>
       </c>
@@ -11121,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>17</v>
       </c>
@@ -11150,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>6.1</v>
       </c>
@@ -11179,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>6.1</v>
       </c>
@@ -11211,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>17.3</v>
       </c>
@@ -11240,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>6</v>
       </c>
@@ -11269,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>16</v>
       </c>
@@ -11298,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>15.4</v>
       </c>
@@ -11327,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>15.4</v>
       </c>
@@ -11356,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>16</v>
       </c>
@@ -11385,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>15.4</v>
       </c>
@@ -11414,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>16.600000000000001</v>
       </c>
@@ -11446,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>15.4</v>
       </c>
@@ -11478,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>16</v>
       </c>
@@ -11510,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>15.4</v>
       </c>
@@ -11539,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>16</v>
       </c>
@@ -11568,7 +11601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>20.9</v>
       </c>
@@ -11597,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>32.1</v>
       </c>
@@ -11626,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>15.3</v>
       </c>
@@ -11658,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>28.5</v>
       </c>
@@ -11690,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>11.9</v>
       </c>
@@ -11719,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>14.5</v>
       </c>
@@ -11748,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>16.600000000000001</v>
       </c>
@@ -11780,7 +11813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>16.2</v>
       </c>
@@ -11812,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>16.7</v>
       </c>
@@ -11844,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>8.3000000000000007</v>
       </c>
@@ -11873,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>5.5</v>
       </c>
@@ -11905,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>13.6</v>
       </c>
@@ -11937,7 +11970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>16</v>
       </c>
@@ -11966,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>16.100000000000001</v>
       </c>
@@ -11998,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>16</v>
       </c>
@@ -12027,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>15.4</v>
       </c>
@@ -12059,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>14.7</v>
       </c>
@@ -12097,28 +12130,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>